--- a/metadata/appendix-A_database-searches.xlsx
+++ b/metadata/appendix-A_database-searches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaaminivenkataraman/Documents/ICB-perspective-piece/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9004A2A2-1537-DB4F-B70F-28CA3A2D11F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21FDC2B-3D82-B240-951D-4C4A0534DFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32960" yWindow="1560" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-1740" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="620">
   <si>
     <t>Database</t>
   </si>
@@ -731,9 +731,6 @@
     <t>Platynereis spp.</t>
   </si>
   <si>
-    <t>Anelid</t>
-  </si>
-  <si>
     <t>MetaboAnalyst (PLS-DA, VIP)</t>
   </si>
   <si>
@@ -1415,12 +1412,6 @@
     <t>Within- and trans-generational responses to combined global changes are highly divergent in two congeneric species of marine annelids</t>
   </si>
   <si>
-    <t>Ophryotrocha robusta, O. japonica</t>
-  </si>
-  <si>
-    <t>Annelid, Annelid</t>
-  </si>
-  <si>
     <t>PCA, MANOVA</t>
   </si>
   <si>
@@ -1930,6 +1921,15 @@
   </si>
   <si>
     <t>10.1016/0166-445X(93)90009-P</t>
+  </si>
+  <si>
+    <t>Annelid</t>
+  </si>
+  <si>
+    <t>Ophryotrocha robusta</t>
+  </si>
+  <si>
+    <t>Ophryotrocha japonica</t>
   </si>
 </sst>
 </file>
@@ -2439,8 +2439,8 @@
   <dimension ref="A1:Y971"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2843,7 +2843,7 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
     </row>
-    <row r="7" spans="1:25" ht="168" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" ht="154" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>2024</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>228</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>229</v>
+        <v>617</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>66</v>
@@ -4045,7 +4045,7 @@
         <v>41</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L25" s="10" t="s">
         <v>57</v>
@@ -4054,19 +4054,19 @@
         <v>57</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O25" s="10" t="s">
         <v>57</v>
       </c>
       <c r="P25" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q25" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="Q25" s="4" t="s">
+      <c r="R25" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="R25" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="S25" s="10" t="s">
         <v>5</v>
@@ -4078,18 +4078,18 @@
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
     </row>
-    <row r="26" spans="1:25" ht="168" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:25" ht="154" x14ac:dyDescent="0.15">
       <c r="A26" s="11">
         <v>2023</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="12" t="s">
         <v>236</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>237</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>36</v>
@@ -4110,13 +4110,13 @@
         <v>41</v>
       </c>
       <c r="K26" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="L26" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="M26" s="10" t="s">
         <v>239</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>240</v>
       </c>
       <c r="N26" s="10" t="s">
         <v>57</v>
@@ -4125,13 +4125,13 @@
         <v>57</v>
       </c>
       <c r="P26" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q26" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="Q26" s="4" t="s">
+      <c r="R26" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="R26" s="4" t="s">
-        <v>243</v>
       </c>
       <c r="S26" s="10" t="s">
         <v>7</v>
@@ -4143,18 +4143,18 @@
       <c r="X26" s="10"/>
       <c r="Y26" s="10"/>
     </row>
-    <row r="27" spans="1:25" ht="266" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:25" ht="252" x14ac:dyDescent="0.15">
       <c r="A27" s="11">
         <v>2023</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="12" t="s">
         <v>245</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>246</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>76</v>
@@ -4169,34 +4169,34 @@
         <v>39</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J27" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>57</v>
       </c>
       <c r="M27" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="N27" s="10" t="s">
         <v>249</v>
-      </c>
-      <c r="N27" s="10" t="s">
-        <v>250</v>
       </c>
       <c r="O27" s="4" t="s">
         <v>57</v>
       </c>
       <c r="P27" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q27" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="Q27" s="4" t="s">
+      <c r="R27" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="R27" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="S27" s="10" t="s">
         <v>120</v>
@@ -4213,19 +4213,19 @@
         <v>2023</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="D28" s="12" t="s">
         <v>255</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>256</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>36</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>38</v>
@@ -4240,13 +4240,13 @@
         <v>41</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>57</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N28" s="10" t="s">
         <v>57</v>
@@ -4255,13 +4255,13 @@
         <v>57</v>
       </c>
       <c r="P28" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q28" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="Q28" s="10" t="s">
+      <c r="R28" s="10" t="s">
         <v>261</v>
-      </c>
-      <c r="R28" s="10" t="s">
-        <v>262</v>
       </c>
       <c r="S28" s="10" t="s">
         <v>62</v>
@@ -4278,19 +4278,19 @@
         <v>2023</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="D29" s="12" t="s">
         <v>255</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>256</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>36</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>144</v>
@@ -4299,19 +4299,19 @@
         <v>39</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J29" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L29" s="10" t="s">
         <v>57</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N29" s="10" t="s">
         <v>57</v>
@@ -4320,13 +4320,13 @@
         <v>57</v>
       </c>
       <c r="P29" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q29" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="Q29" s="10" t="s">
+      <c r="R29" s="10" t="s">
         <v>261</v>
-      </c>
-      <c r="R29" s="10" t="s">
-        <v>262</v>
       </c>
       <c r="S29" s="10" t="s">
         <v>62</v>
@@ -4343,13 +4343,13 @@
         <v>2023</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>266</v>
-      </c>
       <c r="D30" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>36</v>
@@ -4364,34 +4364,34 @@
         <v>39</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J30" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L30" s="10" t="s">
         <v>104</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N30" s="10" t="s">
         <v>106</v>
       </c>
       <c r="O30" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="P30" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="P30" s="10" t="s">
+      <c r="Q30" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="Q30" s="10" t="s">
+      <c r="R30" s="10" t="s">
         <v>272</v>
-      </c>
-      <c r="R30" s="10" t="s">
-        <v>273</v>
       </c>
       <c r="S30" s="10" t="s">
         <v>62</v>
@@ -4408,13 +4408,13 @@
         <v>2022</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="12" t="s">
         <v>275</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>276</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>76</v>
@@ -4435,13 +4435,13 @@
         <v>41</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L31" s="10" t="s">
         <v>57</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N31" s="10" t="s">
         <v>57</v>
@@ -4450,13 +4450,13 @@
         <v>57</v>
       </c>
       <c r="P31" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q31" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="R31" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="R31" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="S31" s="10" t="s">
         <v>7</v>
@@ -4473,13 +4473,13 @@
         <v>2022</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="12" t="s">
         <v>283</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>284</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>101</v>
@@ -4500,13 +4500,13 @@
         <v>41</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L32" s="10" t="s">
         <v>57</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N32" s="10" t="s">
         <v>57</v>
@@ -4515,13 +4515,13 @@
         <v>57</v>
       </c>
       <c r="P32" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q32" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="Q32" s="4" t="s">
+      <c r="R32" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="R32" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="S32" s="10" t="s">
         <v>7</v>
@@ -4538,13 +4538,13 @@
         <v>2022</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="D33" s="12" t="s">
         <v>291</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>292</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>36</v>
@@ -4559,16 +4559,16 @@
         <v>54</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K33" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="L33" s="10" t="s">
         <v>293</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>294</v>
       </c>
       <c r="M33" s="10" t="s">
         <v>57</v>
@@ -4580,13 +4580,13 @@
         <v>57</v>
       </c>
       <c r="P33" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q33" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="Q33" s="10" t="s">
+      <c r="R33" s="10" t="s">
         <v>296</v>
-      </c>
-      <c r="R33" s="10" t="s">
-        <v>297</v>
       </c>
       <c r="S33" s="10" t="s">
         <v>62</v>
@@ -4603,10 +4603,10 @@
         <v>2022</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>299</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>123</v>
@@ -4630,7 +4630,7 @@
         <v>41</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L34" s="10" t="s">
         <v>57</v>
@@ -4639,19 +4639,19 @@
         <v>57</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O34" s="4" t="s">
         <v>57</v>
       </c>
       <c r="P34" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q34" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="Q34" s="4" t="s">
+      <c r="R34" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="R34" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="S34" s="10" t="s">
         <v>120</v>
@@ -4668,19 +4668,19 @@
         <v>2022</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="D35" s="12" t="s">
         <v>306</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>307</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>101</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>38</v>
@@ -4695,10 +4695,10 @@
         <v>41</v>
       </c>
       <c r="K35" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="L35" s="10" t="s">
         <v>309</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>310</v>
       </c>
       <c r="M35" s="10" t="s">
         <v>57</v>
@@ -4710,13 +4710,13 @@
         <v>57</v>
       </c>
       <c r="P35" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q35" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="Q35" s="10" t="s">
+      <c r="R35" s="10" t="s">
         <v>312</v>
-      </c>
-      <c r="R35" s="10" t="s">
-        <v>313</v>
       </c>
       <c r="S35" s="10" t="s">
         <v>62</v>
@@ -4728,18 +4728,18 @@
       <c r="X35" s="10"/>
       <c r="Y35" s="10"/>
     </row>
-    <row r="36" spans="1:25" ht="126" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:25" ht="112" x14ac:dyDescent="0.15">
       <c r="A36" s="10">
         <v>2022</v>
       </c>
       <c r="B36" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="D36" s="12" t="s">
         <v>315</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>316</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>134</v>
@@ -4760,13 +4760,13 @@
         <v>41</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L36" s="10" t="s">
         <v>104</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N36" s="10" t="s">
         <v>57</v>
@@ -4775,13 +4775,13 @@
         <v>57</v>
       </c>
       <c r="P36" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q36" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="Q36" s="10" t="s">
+      <c r="R36" s="10" t="s">
         <v>319</v>
-      </c>
-      <c r="R36" s="10" t="s">
-        <v>320</v>
       </c>
       <c r="S36" s="10" t="s">
         <v>62</v>
@@ -4798,10 +4798,10 @@
         <v>2022</v>
       </c>
       <c r="B37" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>321</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>322</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>190</v>
@@ -4819,19 +4819,19 @@
         <v>77</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J37" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>57</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N37" s="10" t="s">
         <v>106</v>
@@ -4840,13 +4840,13 @@
         <v>57</v>
       </c>
       <c r="P37" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q37" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="Q37" s="10" t="s">
+      <c r="R37" s="10" t="s">
         <v>326</v>
-      </c>
-      <c r="R37" s="10" t="s">
-        <v>327</v>
       </c>
       <c r="S37" s="10" t="s">
         <v>62</v>
@@ -4863,13 +4863,13 @@
         <v>2022</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="12" t="s">
         <v>329</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>330</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>76</v>
@@ -4887,10 +4887,10 @@
         <v>78</v>
       </c>
       <c r="J38" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="K38" s="10" t="s">
         <v>331</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>332</v>
       </c>
       <c r="L38" s="10" t="s">
         <v>81</v>
@@ -4905,13 +4905,13 @@
         <v>57</v>
       </c>
       <c r="P38" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q38" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="Q38" s="4" t="s">
+      <c r="R38" s="15" t="s">
         <v>334</v>
-      </c>
-      <c r="R38" s="15" t="s">
-        <v>335</v>
       </c>
       <c r="S38" s="10" t="s">
         <v>7</v>
@@ -4928,13 +4928,13 @@
         <v>2022</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="D39" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>36</v>
@@ -4955,10 +4955,10 @@
         <v>41</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M39" s="10" t="s">
         <v>57</v>
@@ -4967,16 +4967,16 @@
         <v>106</v>
       </c>
       <c r="O39" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="P39" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="P39" s="10" t="s">
+      <c r="Q39" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="Q39" s="4" t="s">
+      <c r="R39" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="R39" s="4" t="s">
-        <v>342</v>
       </c>
       <c r="S39" s="10" t="s">
         <v>7</v>
@@ -4993,13 +4993,13 @@
         <v>2021</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="D40" s="12" t="s">
         <v>344</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>345</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>76</v>
@@ -5020,13 +5020,13 @@
         <v>41</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L40" s="10" t="s">
         <v>57</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N40" s="10" t="s">
         <v>57</v>
@@ -5035,13 +5035,13 @@
         <v>57</v>
       </c>
       <c r="P40" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q40" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="Q40" s="4" t="s">
+      <c r="R40" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="R40" s="4" t="s">
-        <v>350</v>
       </c>
       <c r="S40" s="10" t="s">
         <v>120</v>
@@ -5058,13 +5058,13 @@
         <v>2021</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>344</v>
-      </c>
       <c r="D41" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>76</v>
@@ -5085,13 +5085,13 @@
         <v>41</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L41" s="10" t="s">
         <v>57</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N41" s="10" t="s">
         <v>57</v>
@@ -5100,13 +5100,13 @@
         <v>57</v>
       </c>
       <c r="P41" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q41" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="Q41" s="4" t="s">
+      <c r="R41" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="R41" s="4" t="s">
-        <v>350</v>
       </c>
       <c r="S41" s="10" t="s">
         <v>120</v>
@@ -5123,19 +5123,19 @@
         <v>2021</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="12" t="s">
         <v>353</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>354</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>76</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>38</v>
@@ -5150,10 +5150,10 @@
         <v>41</v>
       </c>
       <c r="K42" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="L42" s="10" t="s">
         <v>356</v>
-      </c>
-      <c r="L42" s="10" t="s">
-        <v>357</v>
       </c>
       <c r="M42" s="10" t="s">
         <v>57</v>
@@ -5165,13 +5165,13 @@
         <v>57</v>
       </c>
       <c r="P42" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q42" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="Q42" s="4" t="s">
+      <c r="R42" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="R42" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="S42" s="10" t="s">
         <v>7</v>
@@ -5188,13 +5188,13 @@
         <v>2021</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>362</v>
-      </c>
       <c r="D43" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>36</v>
@@ -5215,7 +5215,7 @@
         <v>41</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L43" s="10" t="s">
         <v>104</v>
@@ -5227,16 +5227,16 @@
         <v>106</v>
       </c>
       <c r="O43" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="P43" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="P43" s="10" t="s">
+      <c r="Q43" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="Q43" s="10" t="s">
+      <c r="R43" s="10" t="s">
         <v>366</v>
-      </c>
-      <c r="R43" s="10" t="s">
-        <v>367</v>
       </c>
       <c r="S43" s="10" t="s">
         <v>62</v>
@@ -5253,13 +5253,13 @@
         <v>2021</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="D44" s="12" t="s">
         <v>369</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>370</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>36</v>
@@ -5280,13 +5280,13 @@
         <v>41</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L44" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="M44" s="10" t="s">
         <v>371</v>
-      </c>
-      <c r="M44" s="10" t="s">
-        <v>372</v>
       </c>
       <c r="N44" s="10" t="s">
         <v>106</v>
@@ -5295,13 +5295,13 @@
         <v>57</v>
       </c>
       <c r="P44" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q44" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="Q44" s="4" t="s">
+      <c r="R44" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="R44" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="S44" s="10" t="s">
         <v>5</v>
@@ -5318,10 +5318,10 @@
         <v>2021</v>
       </c>
       <c r="B45" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>376</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>377</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>75</v>
@@ -5345,7 +5345,7 @@
         <v>41</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L45" s="10" t="s">
         <v>57</v>
@@ -5360,13 +5360,13 @@
         <v>57</v>
       </c>
       <c r="P45" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q45" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="Q45" s="10" t="s">
+      <c r="R45" s="10" t="s">
         <v>380</v>
-      </c>
-      <c r="R45" s="10" t="s">
-        <v>381</v>
       </c>
       <c r="S45" s="10" t="s">
         <v>62</v>
@@ -5383,13 +5383,13 @@
         <v>2021</v>
       </c>
       <c r="B46" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>377</v>
-      </c>
       <c r="D46" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>76</v>
@@ -5410,7 +5410,7 @@
         <v>41</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L46" s="10" t="s">
         <v>57</v>
@@ -5425,13 +5425,13 @@
         <v>57</v>
       </c>
       <c r="P46" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q46" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="Q46" s="10" t="s">
+      <c r="R46" s="10" t="s">
         <v>380</v>
-      </c>
-      <c r="R46" s="10" t="s">
-        <v>381</v>
       </c>
       <c r="S46" s="10" t="s">
         <v>62</v>
@@ -5448,10 +5448,10 @@
         <v>2021</v>
       </c>
       <c r="B47" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>382</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>383</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>75</v>
@@ -5475,7 +5475,7 @@
         <v>41</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L47" s="10" t="s">
         <v>57</v>
@@ -5487,16 +5487,16 @@
         <v>106</v>
       </c>
       <c r="O47" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="P47" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="P47" s="10" t="s">
+      <c r="Q47" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="Q47" s="10" t="s">
+      <c r="R47" s="10" t="s">
         <v>387</v>
-      </c>
-      <c r="R47" s="10" t="s">
-        <v>388</v>
       </c>
       <c r="S47" s="10" t="s">
         <v>62</v>
@@ -5513,10 +5513,10 @@
         <v>2021</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>389</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>390</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>123</v>
@@ -5525,7 +5525,7 @@
         <v>36</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>38</v>
@@ -5540,13 +5540,13 @@
         <v>41</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L48" s="10" t="s">
         <v>57</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N48" s="10" t="s">
         <v>57</v>
@@ -5555,13 +5555,13 @@
         <v>57</v>
       </c>
       <c r="P48" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q48" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="Q48" s="4" t="s">
+      <c r="R48" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="R48" s="4" t="s">
-        <v>395</v>
       </c>
       <c r="S48" s="10" t="s">
         <v>120</v>
@@ -5578,13 +5578,13 @@
         <v>2021</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="D49" s="12" t="s">
         <v>397</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>398</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>36</v>
@@ -5605,7 +5605,7 @@
         <v>41</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>57</v>
@@ -5620,13 +5620,13 @@
         <v>57</v>
       </c>
       <c r="P49" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q49" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="Q49" s="4" t="s">
+      <c r="R49" s="4" t="s">
         <v>401</v>
-      </c>
-      <c r="R49" s="4" t="s">
-        <v>402</v>
       </c>
       <c r="S49" s="10" t="s">
         <v>7</v>
@@ -5643,13 +5643,13 @@
         <v>2021</v>
       </c>
       <c r="B50" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="D50" s="12" t="s">
         <v>404</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>405</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>101</v>
@@ -5670,13 +5670,13 @@
         <v>41</v>
       </c>
       <c r="K50" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="L50" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="L50" s="10" t="s">
+      <c r="M50" s="10" t="s">
         <v>407</v>
-      </c>
-      <c r="M50" s="10" t="s">
-        <v>408</v>
       </c>
       <c r="N50" s="10" t="s">
         <v>57</v>
@@ -5685,13 +5685,13 @@
         <v>57</v>
       </c>
       <c r="P50" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q50" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="Q50" s="10" t="s">
+      <c r="R50" s="10" t="s">
         <v>410</v>
-      </c>
-      <c r="R50" s="10" t="s">
-        <v>411</v>
       </c>
       <c r="S50" s="10" t="s">
         <v>62</v>
@@ -5708,13 +5708,13 @@
         <v>2020</v>
       </c>
       <c r="B51" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>413</v>
-      </c>
       <c r="D51" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>134</v>
@@ -5735,7 +5735,7 @@
         <v>41</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L51" s="10" t="s">
         <v>104</v>
@@ -5750,13 +5750,13 @@
         <v>57</v>
       </c>
       <c r="P51" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q51" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="Q51" s="10" t="s">
+      <c r="R51" s="10" t="s">
         <v>415</v>
-      </c>
-      <c r="R51" s="10" t="s">
-        <v>416</v>
       </c>
       <c r="S51" s="10" t="s">
         <v>62</v>
@@ -5773,13 +5773,13 @@
         <v>2020</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="D52" s="12" t="s">
         <v>418</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>419</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>36</v>
@@ -5794,19 +5794,19 @@
         <v>39</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J52" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K52" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="L52" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="L52" s="10" t="s">
+      <c r="M52" s="10" t="s">
         <v>422</v>
-      </c>
-      <c r="M52" s="10" t="s">
-        <v>423</v>
       </c>
       <c r="N52" s="10" t="s">
         <v>57</v>
@@ -5815,13 +5815,13 @@
         <v>57</v>
       </c>
       <c r="P52" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q52" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="Q52" s="4" t="s">
+      <c r="R52" s="4" t="s">
         <v>425</v>
-      </c>
-      <c r="R52" s="4" t="s">
-        <v>426</v>
       </c>
       <c r="S52" s="10" t="s">
         <v>120</v>
@@ -5838,13 +5838,13 @@
         <v>2020</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="D53" s="12" t="s">
         <v>418</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>419</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>36</v>
@@ -5859,19 +5859,19 @@
         <v>39</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J53" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K53" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="L53" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="L53" s="10" t="s">
+      <c r="M53" s="10" t="s">
         <v>422</v>
-      </c>
-      <c r="M53" s="10" t="s">
-        <v>423</v>
       </c>
       <c r="N53" s="10" t="s">
         <v>57</v>
@@ -5880,13 +5880,13 @@
         <v>57</v>
       </c>
       <c r="P53" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q53" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="Q53" s="4" t="s">
+      <c r="R53" s="4" t="s">
         <v>425</v>
-      </c>
-      <c r="R53" s="4" t="s">
-        <v>426</v>
       </c>
       <c r="S53" s="10" t="s">
         <v>120</v>
@@ -5903,13 +5903,13 @@
         <v>2020</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="D54" s="12" t="s">
         <v>418</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>419</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>36</v>
@@ -5924,19 +5924,19 @@
         <v>39</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J54" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K54" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="L54" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="L54" s="10" t="s">
+      <c r="M54" s="10" t="s">
         <v>422</v>
-      </c>
-      <c r="M54" s="10" t="s">
-        <v>423</v>
       </c>
       <c r="N54" s="10" t="s">
         <v>57</v>
@@ -5945,13 +5945,13 @@
         <v>57</v>
       </c>
       <c r="P54" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q54" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="Q54" s="4" t="s">
+      <c r="R54" s="4" t="s">
         <v>425</v>
-      </c>
-      <c r="R54" s="4" t="s">
-        <v>426</v>
       </c>
       <c r="S54" s="10" t="s">
         <v>120</v>
@@ -5968,13 +5968,13 @@
         <v>2020</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="D55" s="12" t="s">
         <v>418</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>419</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>36</v>
@@ -5989,19 +5989,19 @@
         <v>39</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J55" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K55" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="L55" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="L55" s="10" t="s">
+      <c r="M55" s="10" t="s">
         <v>422</v>
-      </c>
-      <c r="M55" s="10" t="s">
-        <v>423</v>
       </c>
       <c r="N55" s="10" t="s">
         <v>57</v>
@@ -6010,13 +6010,13 @@
         <v>57</v>
       </c>
       <c r="P55" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q55" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="Q55" s="4" t="s">
+      <c r="R55" s="4" t="s">
         <v>425</v>
-      </c>
-      <c r="R55" s="4" t="s">
-        <v>426</v>
       </c>
       <c r="S55" s="10" t="s">
         <v>120</v>
@@ -6033,13 +6033,13 @@
         <v>2020</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="D56" s="12" t="s">
         <v>428</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>429</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>36</v>
@@ -6063,25 +6063,25 @@
         <v>103</v>
       </c>
       <c r="L56" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="M56" s="10" t="s">
         <v>430</v>
-      </c>
-      <c r="M56" s="10" t="s">
-        <v>431</v>
       </c>
       <c r="N56" s="10" t="s">
         <v>106</v>
       </c>
       <c r="O56" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="P56" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="P56" s="10" t="s">
+      <c r="Q56" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="Q56" s="4" t="s">
+      <c r="R56" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="R56" s="4" t="s">
-        <v>435</v>
       </c>
       <c r="S56" s="10" t="s">
         <v>120</v>
@@ -6098,10 +6098,10 @@
         <v>2020</v>
       </c>
       <c r="B57" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>436</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>437</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>190</v>
@@ -6119,13 +6119,13 @@
         <v>54</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J57" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L57" s="10" t="s">
         <v>57</v>
@@ -6140,13 +6140,13 @@
         <v>57</v>
       </c>
       <c r="P57" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q57" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="Q57" s="10" t="s">
+      <c r="R57" s="10" t="s">
         <v>441</v>
-      </c>
-      <c r="R57" s="10" t="s">
-        <v>442</v>
       </c>
       <c r="S57" s="10" t="s">
         <v>62</v>
@@ -6163,13 +6163,13 @@
         <v>2020</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="D58" s="12" t="s">
         <v>444</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>445</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>36</v>
@@ -6190,7 +6190,7 @@
         <v>41</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L58" s="10" t="s">
         <v>57</v>
@@ -6205,13 +6205,13 @@
         <v>57</v>
       </c>
       <c r="P58" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q58" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="Q58" s="4" t="s">
+      <c r="R58" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="R58" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="S58" s="10" t="s">
         <v>120</v>
@@ -6228,16 +6228,16 @@
         <v>2020</v>
       </c>
       <c r="B59" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>450</v>
-      </c>
       <c r="D59" s="12" t="s">
-        <v>451</v>
+        <v>618</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>452</v>
+        <v>617</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>66</v>
@@ -6255,13 +6255,13 @@
         <v>41</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="L59" s="10" t="s">
         <v>57</v>
       </c>
       <c r="M59" s="10" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N59" s="10" t="s">
         <v>57</v>
@@ -6270,13 +6270,13 @@
         <v>57</v>
       </c>
       <c r="P59" s="10" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="Q59" s="10" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="R59" s="10" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="S59" s="10" t="s">
         <v>62</v>
@@ -6293,16 +6293,16 @@
         <v>2020</v>
       </c>
       <c r="B60" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="C60" s="10" t="s">
-        <v>450</v>
-      </c>
       <c r="D60" s="12" t="s">
-        <v>451</v>
+        <v>619</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>452</v>
+        <v>617</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>37</v>
@@ -6320,13 +6320,13 @@
         <v>41</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="L60" s="10" t="s">
         <v>57</v>
       </c>
       <c r="M60" s="10" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N60" s="10" t="s">
         <v>57</v>
@@ -6335,13 +6335,13 @@
         <v>57</v>
       </c>
       <c r="P60" s="10" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="Q60" s="10" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="R60" s="10" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="S60" s="10" t="s">
         <v>62</v>
@@ -6358,13 +6358,13 @@
         <v>2019</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>101</v>
@@ -6379,34 +6379,34 @@
         <v>54</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="J61" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L61" s="10" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="M61" s="10" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="N61" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O61" s="4" t="s">
         <v>57</v>
       </c>
       <c r="P61" s="10" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="R61" s="4" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="S61" s="10" t="s">
         <v>7</v>
@@ -6423,13 +6423,13 @@
         <v>2019</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>101</v>
@@ -6444,7 +6444,7 @@
         <v>39</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J62" s="10" t="s">
         <v>41</v>
@@ -6453,7 +6453,7 @@
         <v>103</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="M62" s="10" t="s">
         <v>57</v>
@@ -6465,13 +6465,13 @@
         <v>57</v>
       </c>
       <c r="P62" s="10" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="Q62" s="10" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="R62" s="10" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="S62" s="10" t="s">
         <v>62</v>
@@ -6488,13 +6488,13 @@
         <v>2019</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>101</v>
@@ -6509,13 +6509,13 @@
         <v>39</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="J63" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="L63" s="10" t="s">
         <v>57</v>
@@ -6527,16 +6527,16 @@
         <v>57</v>
       </c>
       <c r="O63" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="P63" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q63" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="R63" s="10" t="s">
         <v>478</v>
-      </c>
-      <c r="P63" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q63" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="R63" s="10" t="s">
-        <v>481</v>
       </c>
       <c r="S63" s="10" t="s">
         <v>62</v>
@@ -6553,13 +6553,13 @@
         <v>2019</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>101</v>
@@ -6574,13 +6574,13 @@
         <v>39</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="J64" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="L64" s="10" t="s">
         <v>57</v>
@@ -6592,16 +6592,16 @@
         <v>57</v>
       </c>
       <c r="O64" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="P64" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q64" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="R64" s="10" t="s">
         <v>478</v>
-      </c>
-      <c r="P64" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q64" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="R64" s="10" t="s">
-        <v>481</v>
       </c>
       <c r="S64" s="10" t="s">
         <v>62</v>
@@ -6618,13 +6618,13 @@
         <v>2019</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>101</v>
@@ -6639,13 +6639,13 @@
         <v>39</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="J65" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="L65" s="10" t="s">
         <v>57</v>
@@ -6657,16 +6657,16 @@
         <v>57</v>
       </c>
       <c r="O65" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="P65" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q65" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="R65" s="10" t="s">
         <v>478</v>
-      </c>
-      <c r="P65" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q65" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="R65" s="10" t="s">
-        <v>481</v>
       </c>
       <c r="S65" s="10" t="s">
         <v>62</v>
@@ -6683,13 +6683,13 @@
         <v>2019</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>101</v>
@@ -6704,13 +6704,13 @@
         <v>39</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="J66" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="L66" s="10" t="s">
         <v>57</v>
@@ -6722,16 +6722,16 @@
         <v>57</v>
       </c>
       <c r="O66" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="P66" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q66" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="R66" s="10" t="s">
         <v>478</v>
-      </c>
-      <c r="P66" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q66" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="R66" s="10" t="s">
-        <v>481</v>
       </c>
       <c r="S66" s="10" t="s">
         <v>62</v>
@@ -6743,18 +6743,18 @@
       <c r="X66" s="10"/>
       <c r="Y66" s="10"/>
     </row>
-    <row r="67" spans="1:25" ht="196" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:25" ht="182" x14ac:dyDescent="0.15">
       <c r="A67" s="11">
         <v>2018</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>36</v>
@@ -6769,19 +6769,19 @@
         <v>39</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="J67" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="L67" s="10" t="s">
         <v>57</v>
       </c>
       <c r="M67" s="10" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="N67" s="10" t="s">
         <v>57</v>
@@ -6790,13 +6790,13 @@
         <v>57</v>
       </c>
       <c r="P67" s="10" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="Q67" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="R67" s="4" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="S67" s="10" t="s">
         <v>7</v>
@@ -6813,13 +6813,13 @@
         <v>2018</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>76</v>
@@ -6834,13 +6834,13 @@
         <v>77</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="J68" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="L68" s="10" t="s">
         <v>81</v>
@@ -6855,13 +6855,13 @@
         <v>57</v>
       </c>
       <c r="P68" s="10" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="Q68" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="R68" s="4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="S68" s="10" t="s">
         <v>120</v>
@@ -6878,13 +6878,13 @@
         <v>2018</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>76</v>
@@ -6899,13 +6899,13 @@
         <v>77</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="J69" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="L69" s="10" t="s">
         <v>81</v>
@@ -6920,13 +6920,13 @@
         <v>57</v>
       </c>
       <c r="P69" s="10" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="Q69" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="R69" s="4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="S69" s="10" t="s">
         <v>120</v>
@@ -6943,13 +6943,13 @@
         <v>2018</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>76</v>
@@ -6964,13 +6964,13 @@
         <v>77</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="J70" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="L70" s="10" t="s">
         <v>81</v>
@@ -6985,13 +6985,13 @@
         <v>57</v>
       </c>
       <c r="P70" s="10" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="Q70" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="R70" s="4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="S70" s="10" t="s">
         <v>120</v>
@@ -7008,13 +7008,13 @@
         <v>2018</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>76</v>
@@ -7029,13 +7029,13 @@
         <v>77</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="J71" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="L71" s="10" t="s">
         <v>81</v>
@@ -7050,13 +7050,13 @@
         <v>57</v>
       </c>
       <c r="P71" s="10" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="Q71" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="R71" s="4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="S71" s="10" t="s">
         <v>120</v>
@@ -7073,10 +7073,10 @@
         <v>2018</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>123</v>
@@ -7094,19 +7094,19 @@
         <v>54</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="J72" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="L72" s="10" t="s">
         <v>57</v>
       </c>
       <c r="M72" s="10" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="N72" s="10" t="s">
         <v>57</v>
@@ -7115,13 +7115,13 @@
         <v>57</v>
       </c>
       <c r="P72" s="10" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="Q72" s="4" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="R72" s="4" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="S72" s="10" t="s">
         <v>7</v>
@@ -7138,13 +7138,13 @@
         <v>2017</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>134</v>
@@ -7156,7 +7156,7 @@
         <v>38</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I73" s="10" t="s">
         <v>67</v>
@@ -7165,7 +7165,7 @@
         <v>41</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L73" s="10" t="s">
         <v>57</v>
@@ -7174,19 +7174,19 @@
         <v>57</v>
       </c>
       <c r="N73" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O73" s="10" t="s">
         <v>57</v>
       </c>
       <c r="P73" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="Q73" s="10" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="R73" s="10" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="S73" s="10" t="s">
         <v>62</v>
@@ -7203,13 +7203,13 @@
         <v>2017</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>76</v>
@@ -7224,19 +7224,19 @@
         <v>77</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J74" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="L74" s="10" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="M74" s="10" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="N74" s="10" t="s">
         <v>57</v>
@@ -7245,13 +7245,13 @@
         <v>57</v>
       </c>
       <c r="P74" s="10" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="Q74" s="4" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="R74" s="4" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="S74" s="10" t="s">
         <v>120</v>
@@ -7268,13 +7268,13 @@
         <v>2017</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>76</v>
@@ -7289,19 +7289,19 @@
         <v>39</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J75" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="L75" s="10" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="M75" s="10" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="N75" s="10" t="s">
         <v>57</v>
@@ -7310,13 +7310,13 @@
         <v>57</v>
       </c>
       <c r="P75" s="10" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="Q75" s="4" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="R75" s="4" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="S75" s="10" t="s">
         <v>120</v>
@@ -7333,13 +7333,13 @@
         <v>2017</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>36</v>
@@ -7360,7 +7360,7 @@
         <v>41</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="L76" s="10" t="s">
         <v>57</v>
@@ -7369,19 +7369,19 @@
         <v>57</v>
       </c>
       <c r="N76" s="10" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="O76" s="4" t="s">
         <v>57</v>
       </c>
       <c r="P76" s="10" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="Q76" s="4" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="R76" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="S76" s="10" t="s">
         <v>7</v>
@@ -7398,13 +7398,13 @@
         <v>2016</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>36</v>
@@ -7419,19 +7419,19 @@
         <v>54</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J77" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="L77" s="10" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M77" s="10" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="N77" s="10" t="s">
         <v>106</v>
@@ -7440,13 +7440,13 @@
         <v>57</v>
       </c>
       <c r="P77" s="10" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="Q77" s="10" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="R77" s="10" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="S77" s="10" t="s">
         <v>62</v>
@@ -7463,13 +7463,13 @@
         <v>2016</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>36</v>
@@ -7484,19 +7484,19 @@
         <v>54</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J78" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="L78" s="10" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M78" s="10" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="N78" s="10" t="s">
         <v>106</v>
@@ -7505,13 +7505,13 @@
         <v>57</v>
       </c>
       <c r="P78" s="10" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="Q78" s="10" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="R78" s="10" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="S78" s="10" t="s">
         <v>62</v>
@@ -7528,13 +7528,13 @@
         <v>2016</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>36</v>
@@ -7549,19 +7549,19 @@
         <v>54</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J79" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="L79" s="10" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M79" s="10" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="N79" s="10" t="s">
         <v>106</v>
@@ -7570,13 +7570,13 @@
         <v>57</v>
       </c>
       <c r="P79" s="10" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="Q79" s="10" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="R79" s="10" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="S79" s="10" t="s">
         <v>62</v>
@@ -7593,16 +7593,16 @@
         <v>2016</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>37</v>
@@ -7614,19 +7614,19 @@
         <v>54</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J80" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M80" s="10" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="N80" s="10" t="s">
         <v>106</v>
@@ -7635,13 +7635,13 @@
         <v>57</v>
       </c>
       <c r="P80" s="10" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="Q80" s="10" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="R80" s="10" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="S80" s="10" t="s">
         <v>62</v>
@@ -7658,13 +7658,13 @@
         <v>2016</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>134</v>
@@ -7679,19 +7679,19 @@
         <v>54</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J81" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="L81" s="10" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M81" s="10" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="N81" s="10" t="s">
         <v>106</v>
@@ -7700,13 +7700,13 @@
         <v>57</v>
       </c>
       <c r="P81" s="10" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="Q81" s="10" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="R81" s="10" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="S81" s="10" t="s">
         <v>62</v>
@@ -7723,13 +7723,13 @@
         <v>2016</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>101</v>
@@ -7744,19 +7744,19 @@
         <v>54</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J82" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="L82" s="10" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M82" s="10" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="N82" s="10" t="s">
         <v>106</v>
@@ -7765,13 +7765,13 @@
         <v>57</v>
       </c>
       <c r="P82" s="10" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="Q82" s="10" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="R82" s="10" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="S82" s="10" t="s">
         <v>62</v>
@@ -7788,13 +7788,13 @@
         <v>2016</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>76</v>
@@ -7809,34 +7809,34 @@
         <v>39</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J83" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L83" s="10" t="s">
         <v>57</v>
       </c>
       <c r="M83" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="N83" s="10" t="s">
         <v>57</v>
       </c>
       <c r="O83" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="P83" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q83" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="R83" s="10" t="s">
         <v>551</v>
-      </c>
-      <c r="P83" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q83" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="R83" s="10" t="s">
-        <v>554</v>
       </c>
       <c r="S83" s="10" t="s">
         <v>62</v>
@@ -7853,13 +7853,13 @@
         <v>2016</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>76</v>
@@ -7874,34 +7874,34 @@
         <v>39</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J84" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L84" s="10" t="s">
         <v>57</v>
       </c>
       <c r="M84" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="N84" s="10" t="s">
         <v>57</v>
       </c>
       <c r="O84" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="P84" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q84" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="R84" s="10" t="s">
         <v>551</v>
-      </c>
-      <c r="P84" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q84" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="R84" s="10" t="s">
-        <v>554</v>
       </c>
       <c r="S84" s="10" t="s">
         <v>62</v>
@@ -7918,13 +7918,13 @@
         <v>2016</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>76</v>
@@ -7945,28 +7945,28 @@
         <v>41</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L85" s="10" t="s">
         <v>57</v>
       </c>
       <c r="M85" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="N85" s="10" t="s">
         <v>57</v>
       </c>
       <c r="O85" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="P85" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q85" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="R85" s="10" t="s">
         <v>551</v>
-      </c>
-      <c r="P85" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q85" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="R85" s="10" t="s">
-        <v>554</v>
       </c>
       <c r="S85" s="10" t="s">
         <v>62</v>
@@ -7983,13 +7983,13 @@
         <v>2016</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>76</v>
@@ -8010,28 +8010,28 @@
         <v>41</v>
       </c>
       <c r="K86" s="10" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L86" s="10" t="s">
         <v>57</v>
       </c>
       <c r="M86" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="N86" s="10" t="s">
         <v>57</v>
       </c>
       <c r="O86" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="P86" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q86" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="R86" s="10" t="s">
         <v>551</v>
-      </c>
-      <c r="P86" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q86" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="R86" s="10" t="s">
-        <v>554</v>
       </c>
       <c r="S86" s="10" t="s">
         <v>62</v>
@@ -8048,13 +8048,13 @@
         <v>2016</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>76</v>
@@ -8075,28 +8075,28 @@
         <v>41</v>
       </c>
       <c r="K87" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="L87" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="M87" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="N87" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="O87" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="L87" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="M87" s="10" t="s">
+      <c r="P87" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="N87" s="10" t="s">
+      <c r="Q87" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="O87" s="4" t="s">
+      <c r="R87" s="4" t="s">
         <v>561</v>
-      </c>
-      <c r="P87" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="Q87" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="R87" s="4" t="s">
-        <v>564</v>
       </c>
       <c r="S87" s="10" t="s">
         <v>120</v>
@@ -8113,10 +8113,10 @@
         <v>2015</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D88" s="12" t="s">
         <v>190</v>
@@ -8140,28 +8140,28 @@
         <v>41</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="L88" s="10" t="s">
         <v>57</v>
       </c>
       <c r="M88" s="10" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="N88" s="10" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="O88" s="10" t="s">
         <v>57</v>
       </c>
       <c r="P88" s="10" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="Q88" s="10" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="R88" s="10" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="S88" s="10" t="s">
         <v>62</v>
@@ -8178,13 +8178,13 @@
         <v>2015</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>36</v>
@@ -8205,13 +8205,13 @@
         <v>41</v>
       </c>
       <c r="K89" s="10" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="L89" s="10" t="s">
         <v>57</v>
       </c>
       <c r="M89" s="10" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="N89" s="10" t="s">
         <v>57</v>
@@ -8220,13 +8220,13 @@
         <v>57</v>
       </c>
       <c r="P89" s="10" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="Q89" s="4" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="R89" s="4" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="S89" s="10" t="s">
         <v>5</v>
@@ -8243,13 +8243,13 @@
         <v>2012</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>101</v>
@@ -8270,7 +8270,7 @@
         <v>41</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="L90" s="10" t="s">
         <v>57</v>
@@ -8285,13 +8285,13 @@
         <v>57</v>
       </c>
       <c r="P90" s="10" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="Q90" s="10" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="R90" s="10" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="S90" s="10" t="s">
         <v>62</v>
@@ -8308,10 +8308,10 @@
         <v>2010</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D91" s="12" t="s">
         <v>190</v>
@@ -8326,7 +8326,7 @@
         <v>38</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="I91" s="10" t="s">
         <v>67</v>
@@ -8335,13 +8335,13 @@
         <v>41</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L91" s="10" t="s">
         <v>81</v>
       </c>
       <c r="M91" s="10" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="N91" s="10" t="s">
         <v>57</v>
@@ -8350,13 +8350,13 @@
         <v>57</v>
       </c>
       <c r="P91" s="10" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="Q91" s="4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="R91" s="4" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="S91" s="10" t="s">
         <v>120</v>
@@ -8373,10 +8373,10 @@
         <v>2010</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D92" s="12" t="s">
         <v>190</v>
@@ -8391,7 +8391,7 @@
         <v>38</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="I92" s="10" t="s">
         <v>67</v>
@@ -8400,13 +8400,13 @@
         <v>41</v>
       </c>
       <c r="K92" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L92" s="10" t="s">
         <v>81</v>
       </c>
       <c r="M92" s="10" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="N92" s="10" t="s">
         <v>57</v>
@@ -8415,13 +8415,13 @@
         <v>57</v>
       </c>
       <c r="P92" s="10" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="Q92" s="4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="R92" s="4" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="S92" s="10" t="s">
         <v>120</v>
@@ -8438,13 +8438,13 @@
         <v>2010</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>36</v>
@@ -8465,13 +8465,13 @@
         <v>41</v>
       </c>
       <c r="K93" s="10" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="L93" s="10" t="s">
         <v>57</v>
       </c>
       <c r="M93" s="10" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="N93" s="10" t="s">
         <v>57</v>
@@ -8480,13 +8480,13 @@
         <v>57</v>
       </c>
       <c r="P93" s="10" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="Q93" s="4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="R93" s="4" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="S93" s="10" t="s">
         <v>7</v>
@@ -8503,13 +8503,13 @@
         <v>2003</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>101</v>
@@ -8524,13 +8524,13 @@
         <v>77</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L94" s="10" t="s">
         <v>57</v>
@@ -8545,13 +8545,13 @@
         <v>57</v>
       </c>
       <c r="P94" s="10" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="Q94" s="4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="R94" s="4" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="S94" s="10" t="s">
         <v>120</v>
@@ -8568,16 +8568,16 @@
         <v>2002</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>156</v>
@@ -8589,13 +8589,13 @@
         <v>77</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="K95" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L95" s="10" t="s">
         <v>57</v>
@@ -8610,13 +8610,13 @@
         <v>57</v>
       </c>
       <c r="P95" s="10" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="Q95" s="4" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="R95" s="4" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="S95" s="10" t="s">
         <v>7</v>
@@ -8633,13 +8633,13 @@
         <v>1993</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E96" s="10" t="s">
         <v>36</v>
@@ -8654,10 +8654,10 @@
         <v>77</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="K96" s="10" t="s">
         <v>57</v>
@@ -8675,13 +8675,13 @@
         <v>57</v>
       </c>
       <c r="P96" s="10" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="Q96" s="4" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R96" s="10" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="S96" s="10" t="s">
         <v>5</v>
@@ -8698,13 +8698,13 @@
         <v>1993</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E97" s="10" t="s">
         <v>36</v>
@@ -8719,10 +8719,10 @@
         <v>77</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="K97" s="10" t="s">
         <v>57</v>
@@ -8740,13 +8740,13 @@
         <v>57</v>
       </c>
       <c r="P97" s="10" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="Q97" s="4" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R97" s="10" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="S97" s="10" t="s">
         <v>5</v>
@@ -8786,112 +8786,240 @@
       <c r="Y98" s="10"/>
     </row>
     <row r="99" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10"/>
-      <c r="K99" s="10"/>
-      <c r="L99" s="10"/>
-      <c r="M99" s="10"/>
-      <c r="N99" s="10"/>
-      <c r="O99" s="10"/>
-      <c r="P99" s="10"/>
-      <c r="Q99" s="10"/>
-      <c r="R99" s="10"/>
-      <c r="S99" s="10"/>
-      <c r="T99" s="10"/>
-      <c r="U99" s="10"/>
-      <c r="V99" s="10"/>
-      <c r="W99" s="10"/>
-      <c r="X99" s="10"/>
-      <c r="Y99" s="10"/>
+      <c r="A99">
+        <v>2003</v>
+      </c>
+      <c r="B99" t="s">
+        <v>597</v>
+      </c>
+      <c r="C99" t="s">
+        <v>598</v>
+      </c>
+      <c r="D99" t="s">
+        <v>599</v>
+      </c>
+      <c r="E99" t="s">
+        <v>101</v>
+      </c>
+      <c r="F99" t="s">
+        <v>156</v>
+      </c>
+      <c r="G99" t="s">
+        <v>38</v>
+      </c>
+      <c r="H99" t="s">
+        <v>77</v>
+      </c>
+      <c r="I99" t="s">
+        <v>600</v>
+      </c>
+      <c r="J99" t="s">
+        <v>601</v>
+      </c>
+      <c r="K99" t="s">
+        <v>284</v>
+      </c>
+      <c r="L99" t="s">
+        <v>57</v>
+      </c>
+      <c r="M99" t="s">
+        <v>57</v>
+      </c>
+      <c r="N99" t="s">
+        <v>57</v>
+      </c>
+      <c r="O99" t="s">
+        <v>57</v>
+      </c>
+      <c r="P99" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>603</v>
+      </c>
+      <c r="R99" t="s">
+        <v>604</v>
+      </c>
+      <c r="S99" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="100" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="10"/>
-      <c r="K100" s="10"/>
-      <c r="L100" s="10"/>
-      <c r="M100" s="10"/>
-      <c r="N100" s="10"/>
-      <c r="O100" s="10"/>
-      <c r="P100" s="10"/>
-      <c r="Q100" s="10"/>
-      <c r="R100" s="10"/>
-      <c r="S100" s="10"/>
-      <c r="T100" s="10"/>
-      <c r="U100" s="10"/>
-      <c r="V100" s="10"/>
-      <c r="W100" s="10"/>
-      <c r="X100" s="10"/>
-      <c r="Y100" s="10"/>
+      <c r="A100">
+        <v>2002</v>
+      </c>
+      <c r="B100" t="s">
+        <v>605</v>
+      </c>
+      <c r="C100" t="s">
+        <v>606</v>
+      </c>
+      <c r="D100" t="s">
+        <v>599</v>
+      </c>
+      <c r="E100" t="s">
+        <v>101</v>
+      </c>
+      <c r="F100" t="s">
+        <v>156</v>
+      </c>
+      <c r="G100" t="s">
+        <v>38</v>
+      </c>
+      <c r="H100" t="s">
+        <v>77</v>
+      </c>
+      <c r="I100" t="s">
+        <v>600</v>
+      </c>
+      <c r="J100" t="s">
+        <v>601</v>
+      </c>
+      <c r="K100" t="s">
+        <v>284</v>
+      </c>
+      <c r="L100" t="s">
+        <v>57</v>
+      </c>
+      <c r="M100" t="s">
+        <v>57</v>
+      </c>
+      <c r="N100" t="s">
+        <v>57</v>
+      </c>
+      <c r="O100" t="s">
+        <v>57</v>
+      </c>
+      <c r="P100" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>609</v>
+      </c>
+      <c r="R100" t="s">
+        <v>610</v>
+      </c>
+      <c r="S100" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="101" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A101" s="10"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="10"/>
-      <c r="K101" s="10"/>
-      <c r="L101" s="10"/>
-      <c r="M101" s="10"/>
-      <c r="N101" s="10"/>
-      <c r="O101" s="10"/>
-      <c r="P101" s="10"/>
-      <c r="Q101" s="10"/>
-      <c r="R101" s="10"/>
-      <c r="S101" s="10"/>
-      <c r="T101" s="10"/>
-      <c r="U101" s="10"/>
-      <c r="V101" s="10"/>
-      <c r="W101" s="10"/>
-      <c r="X101" s="10"/>
-      <c r="Y101" s="10"/>
+      <c r="A101">
+        <v>1993</v>
+      </c>
+      <c r="B101" t="s">
+        <v>611</v>
+      </c>
+      <c r="C101" t="s">
+        <v>612</v>
+      </c>
+      <c r="D101" t="s">
+        <v>613</v>
+      </c>
+      <c r="E101" t="s">
+        <v>36</v>
+      </c>
+      <c r="F101" t="s">
+        <v>89</v>
+      </c>
+      <c r="G101" t="s">
+        <v>38</v>
+      </c>
+      <c r="H101" t="s">
+        <v>77</v>
+      </c>
+      <c r="I101" t="s">
+        <v>600</v>
+      </c>
+      <c r="J101" t="s">
+        <v>601</v>
+      </c>
+      <c r="K101" t="s">
+        <v>57</v>
+      </c>
+      <c r="L101" t="s">
+        <v>57</v>
+      </c>
+      <c r="M101" t="s">
+        <v>57</v>
+      </c>
+      <c r="N101" t="s">
+        <v>57</v>
+      </c>
+      <c r="O101" t="s">
+        <v>57</v>
+      </c>
+      <c r="P101" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>615</v>
+      </c>
+      <c r="R101" t="s">
+        <v>616</v>
+      </c>
+      <c r="S101" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="102" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A102" s="10"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="10"/>
-      <c r="K102" s="10"/>
-      <c r="L102" s="10"/>
-      <c r="M102" s="10"/>
-      <c r="N102" s="10"/>
-      <c r="O102" s="10"/>
-      <c r="P102" s="10"/>
-      <c r="Q102" s="10"/>
-      <c r="R102" s="10"/>
-      <c r="S102" s="10"/>
-      <c r="T102" s="10"/>
-      <c r="U102" s="10"/>
-      <c r="V102" s="10"/>
-      <c r="W102" s="10"/>
-      <c r="X102" s="10"/>
-      <c r="Y102" s="10"/>
+      <c r="A102">
+        <v>1993</v>
+      </c>
+      <c r="B102" t="s">
+        <v>611</v>
+      </c>
+      <c r="C102" t="s">
+        <v>612</v>
+      </c>
+      <c r="D102" t="s">
+        <v>613</v>
+      </c>
+      <c r="E102" t="s">
+        <v>36</v>
+      </c>
+      <c r="F102" t="s">
+        <v>37</v>
+      </c>
+      <c r="G102" t="s">
+        <v>38</v>
+      </c>
+      <c r="H102" t="s">
+        <v>77</v>
+      </c>
+      <c r="I102" t="s">
+        <v>600</v>
+      </c>
+      <c r="J102" t="s">
+        <v>601</v>
+      </c>
+      <c r="K102" t="s">
+        <v>57</v>
+      </c>
+      <c r="L102" t="s">
+        <v>57</v>
+      </c>
+      <c r="M102" t="s">
+        <v>57</v>
+      </c>
+      <c r="N102" t="s">
+        <v>57</v>
+      </c>
+      <c r="O102" t="s">
+        <v>57</v>
+      </c>
+      <c r="P102" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>615</v>
+      </c>
+      <c r="R102" t="s">
+        <v>616</v>
+      </c>
+      <c r="S102" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="103" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="10"/>
